--- a/Hardware/fab/bom/pcb-bolink-batteryHolder.xlsx
+++ b/Hardware/fab/bom/pcb-bolink-batteryHolder.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve"> MPN</t>
   </si>
   <si>
-    <t xml:space="preserve"> ALT_MPN</t>
+    <t xml:space="preserve"> ALT_MPN/Notes</t>
   </si>
   <si>
     <t xml:space="preserve"> Footprint</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">BT1, BT2</t>
   </si>
   <si>
-    <t xml:space="preserve">2xPN57</t>
+    <t xml:space="preserve">PN57</t>
   </si>
   <si>
     <t xml:space="preserve">36-57-ND</t>
@@ -70,37 +70,43 @@
     <t xml:space="preserve">36-69-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">Requires THT rework</t>
+  </si>
+  <si>
     <t xml:space="preserve">node-lib-v1:Keystone_69_clip</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.nl/short/zn47d7</t>
   </si>
   <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLEX PicoBlade 1.25mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector_Molex:Molex_PicoBlade_53398-0271_1x02-1MP_P1.25mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_MOLEX_0533980271_MOLEX-0533980271_C122410.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">J1</t>
   </si>
   <si>
-    <t xml:space="preserve">MOLEX PicoBlade 1.25mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_Molex:Molex_PicoBlade_53398-0271_1x02-1MP_P1.25mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_MOLEX_0533980271_MOLEX-0533980271_C122410.html</t>
+    <t xml:space="preserve">DNM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solder 60mm JST-PH Cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestPoint:TestPoint_Keystone_5019_Minature</t>
   </si>
   <si>
     <t xml:space="preserve">J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestPoint:TestPoint_Keystone_5019_Minature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3</t>
   </si>
   <si>
     <t xml:space="preserve">Part:</t>
@@ -248,15 +254,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,10 +305,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -434,376 +432,375 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL15"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="C3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="n">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="8" t="n">
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>533980271</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
+      <c r="A9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
+      <c r="A10" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="B10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="24" t="n">
-        <f aca="false">SUM(D2:D4)</f>
-        <v>4</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
+      <c r="A11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="22" t="n">
+        <f aca="false">SUM(C2:C4)</f>
+        <v>6</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="24" t="n">
-        <f aca="false">COUNTIF(D2:D4, "&lt;&gt;")</f>
+      <c r="A12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="22" t="n">
+        <f aca="false">COUNTIF(C2:C4, "&lt;&gt;")</f>
         <v>3</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="25"/>
-      <c r="AV12" s="25"/>
-      <c r="AW12" s="25"/>
-      <c r="AX12" s="25"/>
-      <c r="AY12" s="25"/>
-      <c r="AZ12" s="25"/>
-      <c r="BA12" s="25"/>
-      <c r="BB12" s="25"/>
-      <c r="BC12" s="25"/>
-      <c r="BD12" s="25"/>
-      <c r="BE12" s="25"/>
-      <c r="BF12" s="25"/>
-      <c r="BG12" s="25"/>
-      <c r="BH12" s="25"/>
-      <c r="BI12" s="25"/>
-      <c r="BJ12" s="25"/>
-      <c r="BK12" s="25"/>
-      <c r="BL12" s="25"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23"/>
+      <c r="AL12" s="23"/>
+      <c r="AM12" s="23"/>
+      <c r="AN12" s="23"/>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="23"/>
+      <c r="AR12" s="23"/>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="23"/>
+      <c r="AU12" s="23"/>
+      <c r="AV12" s="23"/>
+      <c r="AW12" s="23"/>
+      <c r="AX12" s="23"/>
+      <c r="AY12" s="23"/>
+      <c r="AZ12" s="23"/>
+      <c r="BA12" s="23"/>
+      <c r="BB12" s="23"/>
+      <c r="BC12" s="23"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="23"/>
+      <c r="BF12" s="23"/>
+      <c r="BG12" s="23"/>
+      <c r="BH12" s="23"/>
+      <c r="BI12" s="23"/>
+      <c r="BJ12" s="23"/>
+      <c r="BK12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="25"/>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="25"/>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="25"/>
-      <c r="BA13" s="25"/>
-      <c r="BB13" s="25"/>
-      <c r="BC13" s="25"/>
-      <c r="BD13" s="25"/>
-      <c r="BE13" s="25"/>
-      <c r="BF13" s="25"/>
-      <c r="BG13" s="25"/>
-      <c r="BH13" s="25"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="25"/>
-      <c r="BK13" s="25"/>
-      <c r="BL13" s="25"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="23"/>
+      <c r="AK13" s="23"/>
+      <c r="AL13" s="23"/>
+      <c r="AM13" s="23"/>
+      <c r="AN13" s="23"/>
+      <c r="AO13" s="23"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="23"/>
+      <c r="AR13" s="23"/>
+      <c r="AS13" s="23"/>
+      <c r="AT13" s="23"/>
+      <c r="AU13" s="23"/>
+      <c r="AV13" s="23"/>
+      <c r="AW13" s="23"/>
+      <c r="AX13" s="23"/>
+      <c r="AY13" s="23"/>
+      <c r="AZ13" s="23"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="23"/>
+      <c r="BC13" s="23"/>
+      <c r="BD13" s="23"/>
+      <c r="BE13" s="23"/>
+      <c r="BF13" s="23"/>
+      <c r="BG13" s="23"/>
+      <c r="BH13" s="23"/>
+      <c r="BI13" s="23"/>
+      <c r="BJ13" s="23"/>
+      <c r="BK13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="A14" s="6"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="26"/>
+      <c r="H15" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="https://www.digikey.nl/short/zn47d8"/>
-    <hyperlink ref="I3" r:id="rId2" display="https://www.digikey.nl/short/zn47d7"/>
-    <hyperlink ref="I4" r:id="rId3" display="https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_MOLEX_0533980271_MOLEX-0533980271_C122410.html"/>
+    <hyperlink ref="H2" r:id="rId1" display="https://www.digikey.nl/short/zn47d8"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://www.digikey.nl/short/zn47d7"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_MOLEX_0533980271_MOLEX-0533980271_C122410.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Hardware/fab/bom/pcb-bolink-batteryHolder.xlsx
+++ b/Hardware/fab/bom/pcb-bolink-batteryHolder.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/georgy_aleksandrov_arrow_com/Documents/WORK/Project/TheThingsIndustries/fork/generic-node-se/Hardware/fab/bom/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_26331078BAB30D10C27B6F464FBFD0EBB43F2AD3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7C32FA-EFE0-42B3-B5E9-B17B4BAB7417}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="1152" windowWidth="30744" windowHeight="8364" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Generic_Node-BatteryHolder" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Generic_Node-BatteryHolder" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -22,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
-    <t xml:space="preserve">Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
   <si>
     <t xml:space="preserve"> Quantity</t>
@@ -46,104 +62,101 @@
     <t xml:space="preserve"> URL</t>
   </si>
   <si>
-    <t xml:space="preserve">BT1, BT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PN57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36-57-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:keystone-PN57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/zn47d8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTclip1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PN69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36-69-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires THT rework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">node-lib-v1:Keystone_69_clip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.digikey.nl/short/zn47d7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLEX PicoBlade 1.25mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connector_Molex:Molex_PicoBlade_53398-0271_1x02-1MP_P1.25mm_Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_MOLEX_0533980271_MOLEX-0533980271_C122410.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solder 60mm JST-PH Cable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestPoint:TestPoint_Keystone_5019_Minature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generic Node Battery Holder PCB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/27/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KiCAD v5.1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Components:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique Components:</t>
+    <t>BT1, BT2</t>
+  </si>
+  <si>
+    <t>PN57</t>
+  </si>
+  <si>
+    <t>36-57-ND</t>
+  </si>
+  <si>
+    <t>node-lib-v1:keystone-PN57</t>
+  </si>
+  <si>
+    <t>BTclip1</t>
+  </si>
+  <si>
+    <t>PN69</t>
+  </si>
+  <si>
+    <t>36-69-ND</t>
+  </si>
+  <si>
+    <t>Requires THT rework</t>
+  </si>
+  <si>
+    <t>node-lib-v1:Keystone_69_clip</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>MOLEX PicoBlade 1.25mm</t>
+  </si>
+  <si>
+    <t>Connector_Molex:Molex_PicoBlade_53398-0271_1x02-1MP_P1.25mm_Vertical</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>DNM</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Solder 60mm JST-PH Cable</t>
+  </si>
+  <si>
+    <t>TestPoint:TestPoint_Keystone_5019_Minature</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Part:</t>
+  </si>
+  <si>
+    <t>Generic Node Battery Holder PCB</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>10/27/2020</t>
+  </si>
+  <si>
+    <t>Tool:</t>
+  </si>
+  <si>
+    <t>KiCAD v5.1.8</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
+    <t>Unique Components:</t>
+  </si>
+  <si>
+    <t>57TR by Keystone Electronics | | Arrow.com</t>
+  </si>
+  <si>
+    <t>3096TR by Keystone Electronics | | Arrow.com</t>
+  </si>
+  <si>
+    <t>0533980271 by Molex | Connector Headers and PCB Receptacles | Arrow.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
-    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -151,29 +164,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -193,7 +191,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -221,7 +219,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -229,141 +227,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -422,33 +362,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.18"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,12 +723,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="6">
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -489,104 +738,104 @@
         <v>10</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7">
+        <v>533980271</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>533980271</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -596,12 +845,12 @@
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:63" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="4"/>
@@ -610,12 +859,12 @@
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="4"/>
@@ -624,12 +873,12 @@
       <c r="G9" s="15"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="4"/>
@@ -638,12 +887,12 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="22" t="n">
-        <f aca="false">SUM(C2:C4)</f>
+        <v>32</v>
+      </c>
+      <c r="B11" s="22">
+        <f>SUM(C2:C4)</f>
         <v>6</v>
       </c>
       <c r="C11" s="14"/>
@@ -653,12 +902,12 @@
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="22" t="n">
-        <f aca="false">COUNTIF(C2:C4, "&lt;&gt;")</f>
+        <v>33</v>
+      </c>
+      <c r="B12" s="22">
+        <f>COUNTIF(C2:C4, "&lt;&gt;")</f>
         <v>3</v>
       </c>
       <c r="C12" s="14"/>
@@ -723,7 +972,7 @@
       <c r="BJ12" s="23"/>
       <c r="BK12" s="23"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="23"/>
@@ -788,24 +1037,23 @@
       <c r="BJ13" s="23"/>
       <c r="BK13" s="23"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="H15" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="https://www.digikey.nl/short/zn47d8"/>
-    <hyperlink ref="H3" r:id="rId2" display="https://www.digikey.nl/short/zn47d7"/>
-    <hyperlink ref="H4" r:id="rId3" display="https://lcsc.com/product-detail/Wire-To-Board-Wire-To-Wire-Connector_MOLEX_0533980271_MOLEX-0533980271_C122410.html"/>
+    <hyperlink ref="H2" r:id="rId1" display="https://www.arrow.com/en/products/57tr/keystone-electronics?q=57TR" xr:uid="{5F0292A9-5A3B-4399-9122-73EE6B660C64}"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://www.arrow.com/en/products/3096tr/keystone-electronics" xr:uid="{D274D776-3493-4E12-A2D0-4A66121BB133}"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://www.arrow.com/en/products/0533980271/molex" xr:uid="{2584F409-6372-4FB5-BDD0-66DEC75B7B7B}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
